--- a/biology/Botanique/Rupicapnos_numidica/Rupicapnos_numidica.xlsx
+++ b/biology/Botanique/Rupicapnos_numidica/Rupicapnos_numidica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rupicapnos numidica est une espèce de plantes de la famille des Papaveraceae[1] endémique de la Tunisie et de l'Algérie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rupicapnos numidica est une espèce de plantes de la famille des Papaveraceae endémique de la Tunisie et de l'Algérie.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a d'abord été décrite sous le nom de Fumaria numidica par Ernest Cosson et Michel Charles Durieu de Maisonneuve en 1855[2]. Auguste Pomel rattache cette espèce au genre Rupicapnos qu'il crée en 1860[3].
-Son nom vernaculaire français est Rupicanos de Numidie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a d'abord été décrite sous le nom de Fumaria numidica par Ernest Cosson et Michel Charles Durieu de Maisonneuve en 1855. Auguste Pomel rattache cette espèce au genre Rupicapnos qu'il crée en 1860.
+Son nom vernaculaire français est Rupicanos de Numidie.
 </t>
         </is>
       </c>
@@ -569,12 +585,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 octobre 2013)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 octobre 2013) :
 sous-espèce Rupicapnos numidica subsp. delicatula
 sous-espèce Rupicapnos numidica subsp. numidica
-Selon Tropicos                                           (4 octobre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 octobre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Rupicapnos numidica subsp. delicatula Maire
 sous-espèce Rupicapnos numidica subsp. numidica</t>
         </is>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce deliculata est une endémique algérienne[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce deliculata est une endémique algérienne.
 </t>
         </is>
       </c>
